--- a/Data/EC/NIT-9004580033.xlsx
+++ b/Data/EC/NIT-9004580033.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1735D6A9-68C9-4AE5-8B74-F4AFB5074291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8408B02-EFEA-4BEA-8A62-EA39D70F9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DBA64825-2499-47BD-8943-C2C96A4FC608}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7830EBF5-2326-475B-9C9A-60414F8092F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,96 @@
     <t>CC</t>
   </si>
   <si>
+    <t>30579339</t>
+  </si>
+  <si>
+    <t>YANIS PATRICIA RODELO CATALAN</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>1052990764</t>
   </si>
   <si>
@@ -72,96 +162,6 @@
   </si>
   <si>
     <t>1607</t>
-  </si>
-  <si>
-    <t>30579339</t>
-  </si>
-  <si>
-    <t>YANIS PATRICIA RODELO CATALAN</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -575,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62FC380-5E45-B244-DD20-68F2D2931CB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A12E821-387F-125C-4CC2-41C0CBCD6362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8026C54-9C38-47E7-A550-2AFCE5231728}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C826DC-B6DF-4A72-97AD-9903657A66BC}">
   <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1104,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28859</v>
+        <v>32142</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>803535</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1118,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>32142</v>
@@ -1141,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>32142</v>
@@ -1164,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>32142</v>
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>32142</v>
@@ -1210,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>32142</v>
@@ -1233,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>32142</v>
@@ -1256,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>32142</v>
@@ -1279,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>32142</v>
@@ -1302,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>32142</v>
@@ -1325,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>32142</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>32142</v>
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>32142</v>
@@ -1394,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>32142</v>
@@ -1417,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>32142</v>
@@ -1440,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>32142</v>
@@ -1463,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>32142</v>
@@ -1486,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>32142</v>
@@ -1509,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>32142</v>
@@ -1532,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>32142</v>
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>32142</v>
@@ -1578,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>32142</v>
@@ -1601,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>32142</v>
@@ -1624,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>32142</v>
@@ -1647,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>32142</v>
@@ -1670,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>32142</v>
@@ -1693,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>32142</v>
@@ -1716,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>32142</v>
@@ -1739,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F44" s="24">
-        <v>32142</v>
+        <v>28859</v>
       </c>
       <c r="G44" s="24">
-        <v>803535</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>

--- a/Data/EC/NIT-9004580033.xlsx
+++ b/Data/EC/NIT-9004580033.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8408B02-EFEA-4BEA-8A62-EA39D70F9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09045C5F-3527-4710-96A0-D11C96703297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7830EBF5-2326-475B-9C9A-60414F8092F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3F4FC46-189B-4C01-B5A8-065D7849BD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,103 +65,103 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1052990764</t>
+  </si>
+  <si>
+    <t>GLORIA STEFANI ALVAREZ MAYA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>30579339</t>
   </si>
   <si>
     <t>YANIS PATRICIA RODELO CATALAN</t>
   </si>
   <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1052990764</t>
-  </si>
-  <si>
-    <t>GLORIA STEFANI ALVAREZ MAYA</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -260,7 +260,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +475,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A12E821-387F-125C-4CC2-41C0CBCD6362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FC09A3-71D2-6734-7B9C-F7DAA8A57A51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C826DC-B6DF-4A72-97AD-9903657A66BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FD6386-CA5F-4A6D-81FA-1ADE6B713DAC}">
   <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1104,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32142</v>
+        <v>28859</v>
       </c>
       <c r="G16" s="18">
-        <v>803535</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1118,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>32142</v>
@@ -1141,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>32142</v>
@@ -1164,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>32142</v>
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>32142</v>
@@ -1210,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>32142</v>
@@ -1233,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>32142</v>
@@ -1256,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>32142</v>
@@ -1279,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>32142</v>
@@ -1302,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>32142</v>
@@ -1325,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>32142</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>32142</v>
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>32142</v>
@@ -1394,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>32142</v>
@@ -1417,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>32142</v>
@@ -1440,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>32142</v>
@@ -1463,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>32142</v>
@@ -1486,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>32142</v>
@@ -1509,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>32142</v>
@@ -1532,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>32142</v>
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>32142</v>
@@ -1578,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>32142</v>
@@ -1601,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>32142</v>
@@ -1624,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>32142</v>
@@ -1647,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>32142</v>
@@ -1670,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>32142</v>
@@ -1693,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>32142</v>
@@ -1716,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>32142</v>
@@ -1739,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F44" s="24">
-        <v>28859</v>
+        <v>32142</v>
       </c>
       <c r="G44" s="24">
-        <v>781242</v>
+        <v>803535</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
